--- a/public/uploads/Sheet1.xlsx
+++ b/public/uploads/Sheet1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/somsubhra/Desktop/My Projects/Full Stack/eshop-2-API/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4E9F16-FA77-D24E-974E-7838D8478ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -54,9 +60,6 @@
     <t>isFeatured</t>
   </si>
   <si>
-    <t>creadtedAt</t>
-  </si>
-  <si>
     <t>updatedAt</t>
   </si>
   <si>
@@ -69,13 +72,40 @@
     <t>oppo</t>
   </si>
   <si>
-    <t>k</t>
+    <t>vivo</t>
+  </si>
+  <si>
+    <t>128GB</t>
+  </si>
+  <si>
+    <t>Vivo device working fine</t>
+  </si>
+  <si>
+    <t>256GB</t>
+  </si>
+  <si>
+    <t>Repair model of samsung</t>
+  </si>
+  <si>
+    <t>samsung</t>
+  </si>
+  <si>
+    <t>16, 1TB</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Slim device for office use</t>
+  </si>
+  <si>
+    <t>createdAt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,8 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,6 +147,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -164,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +231,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,6 +283,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,26 +475,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,38 +528,29 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
       </c>
       <c r="G2">
         <v>658432</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
       <c r="I2">
         <v>66</v>
       </c>
@@ -501,14 +560,86 @@
       <c r="K2">
         <v>64</v>
       </c>
-      <c r="L2" t="b">
+      <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s">
-        <v>17</v>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>341561</v>
+      </c>
+      <c r="I3">
+        <v>95</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>6945</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>648648</v>
+      </c>
+      <c r="I4">
+        <v>56</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>54</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>49466</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>241</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -517,24 +648,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
